--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Cdh1-Itgb7.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Cdh1-Itgb7.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,15 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>Neutro</t>
   </si>
   <si>
@@ -88,16 +97,7 @@
     <t>Itgb7</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>FAPs</t>
-  </si>
-  <si>
-    <t>M1</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.516637291027339</v>
+        <v>0.002166666666666667</v>
       </c>
       <c r="H2">
-        <v>0.516637291027339</v>
+        <v>0.0065</v>
       </c>
       <c r="I2">
-        <v>0.7549570078925519</v>
+        <v>0.001162869539813164</v>
       </c>
       <c r="J2">
-        <v>0.7549570078925519</v>
+        <v>0.001162869539813165</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.679685318926184</v>
+        <v>0.8672823333333334</v>
       </c>
       <c r="N2">
-        <v>0.679685318926184</v>
+        <v>2.601847</v>
       </c>
       <c r="O2">
-        <v>0.02713179863505067</v>
+        <v>0.02330657204704962</v>
       </c>
       <c r="P2">
-        <v>0.02713179863505067</v>
+        <v>0.02330657204704962</v>
       </c>
       <c r="Q2">
-        <v>0.3511507819210767</v>
+        <v>0.001879111722222222</v>
       </c>
       <c r="R2">
-        <v>0.3511507819210767</v>
+        <v>0.0169120055</v>
       </c>
       <c r="S2">
-        <v>0.02048334151626108</v>
+        <v>2.710250271097496E-05</v>
       </c>
       <c r="T2">
-        <v>0.02048334151626108</v>
+        <v>2.710250271097496E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.516637291027339</v>
+        <v>0.002166666666666667</v>
       </c>
       <c r="H3">
-        <v>0.516637291027339</v>
+        <v>0.0065</v>
       </c>
       <c r="I3">
-        <v>0.7549570078925519</v>
+        <v>0.001162869539813164</v>
       </c>
       <c r="J3">
-        <v>0.7549570078925519</v>
+        <v>0.001162869539813165</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.18365333282934</v>
+        <v>1.185693666666667</v>
       </c>
       <c r="N3">
-        <v>1.18365333282934</v>
+        <v>3.557081</v>
       </c>
       <c r="O3">
-        <v>0.04724928284572823</v>
+        <v>0.03186327428311169</v>
       </c>
       <c r="P3">
-        <v>0.04724928284572823</v>
+        <v>0.03186327428311169</v>
       </c>
       <c r="Q3">
-        <v>0.6115194513884314</v>
+        <v>0.002569002944444444</v>
       </c>
       <c r="R3">
-        <v>0.6115194513884314</v>
+        <v>0.0231210265</v>
       </c>
       <c r="S3">
-        <v>0.03567117720227986</v>
+        <v>3.705283110254273E-05</v>
       </c>
       <c r="T3">
-        <v>0.03567117720227986</v>
+        <v>3.705283110254273E-05</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.516637291027339</v>
+        <v>0.002166666666666667</v>
       </c>
       <c r="H4">
-        <v>0.516637291027339</v>
+        <v>0.0065</v>
       </c>
       <c r="I4">
-        <v>0.7549570078925519</v>
+        <v>0.001162869539813164</v>
       </c>
       <c r="J4">
-        <v>0.7549570078925519</v>
+        <v>0.001162869539813165</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.61944302727373</v>
+        <v>16.21723233333333</v>
       </c>
       <c r="N4">
-        <v>6.61944302727373</v>
+        <v>48.651697</v>
       </c>
       <c r="O4">
-        <v>0.264236096162739</v>
+        <v>0.4358074403843607</v>
       </c>
       <c r="P4">
-        <v>0.264236096162739</v>
+        <v>0.4358074403843607</v>
       </c>
       <c r="Q4">
-        <v>3.419851113720508</v>
+        <v>0.03513733672222222</v>
       </c>
       <c r="R4">
-        <v>3.419851113720508</v>
+        <v>0.3162360305</v>
       </c>
       <c r="S4">
-        <v>0.1994868925362301</v>
+        <v>0.0005067871976469146</v>
       </c>
       <c r="T4">
-        <v>0.1994868925362301</v>
+        <v>0.0005067871976469148</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,61 +714,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" t="s">
-        <v>27</v>
-      </c>
       <c r="E5">
         <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.516637291027339</v>
+        <v>0.002166666666666667</v>
       </c>
       <c r="H5">
-        <v>0.516637291027339</v>
+        <v>0.0065</v>
       </c>
       <c r="I5">
-        <v>0.7549570078925519</v>
+        <v>0.001162869539813164</v>
       </c>
       <c r="J5">
-        <v>0.7549570078925519</v>
+        <v>0.001162869539813165</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.99023059359207</v>
+        <v>11.00545633333333</v>
       </c>
       <c r="N5">
-        <v>8.99023059359207</v>
+        <v>33.016369</v>
       </c>
       <c r="O5">
-        <v>0.3588736130616685</v>
+        <v>0.2957508196409995</v>
       </c>
       <c r="P5">
-        <v>0.3588736130616685</v>
+        <v>0.2957508196409995</v>
       </c>
       <c r="Q5">
-        <v>4.644688379584514</v>
+        <v>0.02384515538888889</v>
       </c>
       <c r="R5">
-        <v>4.644688379584514</v>
+        <v>0.2146063985</v>
       </c>
       <c r="S5">
-        <v>0.2709341491286267</v>
+        <v>0.0003439196195352952</v>
       </c>
       <c r="T5">
-        <v>0.2709341491286267</v>
+        <v>0.0003439196195352953</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,61 +776,61 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
         <v>1</v>
       </c>
       <c r="F6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.516637291027339</v>
+        <v>0.002166666666666667</v>
       </c>
       <c r="H6">
-        <v>0.516637291027339</v>
+        <v>0.0065</v>
       </c>
       <c r="I6">
-        <v>0.7549570078925519</v>
+        <v>0.001162869539813164</v>
       </c>
       <c r="J6">
-        <v>0.7549570078925519</v>
+        <v>0.001162869539813165</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.09530791525976</v>
+        <v>7.413711999999999</v>
       </c>
       <c r="N6">
-        <v>7.09530791525976</v>
+        <v>22.241136</v>
       </c>
       <c r="O6">
-        <v>0.2832317548283194</v>
+        <v>0.1992294852818897</v>
       </c>
       <c r="P6">
-        <v>0.2832317548283194</v>
+        <v>0.1992294852818897</v>
       </c>
       <c r="Q6">
-        <v>3.665700660344639</v>
+        <v>0.01606304266666667</v>
       </c>
       <c r="R6">
-        <v>3.665700660344639</v>
+        <v>0.144567384</v>
       </c>
       <c r="S6">
-        <v>0.2138277981653448</v>
+        <v>0.0002316778998669647</v>
       </c>
       <c r="T6">
-        <v>0.2138277981653448</v>
+        <v>0.0002316778998669648</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,61 +838,61 @@
         <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G7">
-        <v>0.516637291027339</v>
+        <v>0.002166666666666667</v>
       </c>
       <c r="H7">
-        <v>0.516637291027339</v>
+        <v>0.0065</v>
       </c>
       <c r="I7">
-        <v>0.7549570078925519</v>
+        <v>0.001162869539813164</v>
       </c>
       <c r="J7">
-        <v>0.7549570078925519</v>
+        <v>0.001162869539813165</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.482924223468814</v>
+        <v>0.522545</v>
       </c>
       <c r="N7">
-        <v>0.482924223468814</v>
+        <v>1.567635</v>
       </c>
       <c r="O7">
-        <v>0.01927745446649416</v>
+        <v>0.01404240836258882</v>
       </c>
       <c r="P7">
-        <v>0.01927745446649416</v>
+        <v>0.01404240836258882</v>
       </c>
       <c r="Q7">
-        <v>0.2494966625844094</v>
+        <v>0.001132180833333333</v>
       </c>
       <c r="R7">
-        <v>0.2494966625844094</v>
+        <v>0.0101896275</v>
       </c>
       <c r="S7">
-        <v>0.01455364934380934</v>
+        <v>1.632948895047219E-05</v>
       </c>
       <c r="T7">
-        <v>0.01455364934380934</v>
+        <v>1.632948895047219E-05</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.167689479406281</v>
+        <v>0.3005456666666667</v>
       </c>
       <c r="H8">
-        <v>0.167689479406281</v>
+        <v>0.901637</v>
       </c>
       <c r="I8">
-        <v>0.2450429921074481</v>
+        <v>0.1613055697336188</v>
       </c>
       <c r="J8">
-        <v>0.2450429921074481</v>
+        <v>0.1613055697336188</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.679685318926184</v>
+        <v>0.8672823333333334</v>
       </c>
       <c r="N8">
-        <v>0.679685318926184</v>
+        <v>2.601847</v>
       </c>
       <c r="O8">
-        <v>0.02713179863505067</v>
+        <v>0.02330657204704962</v>
       </c>
       <c r="P8">
-        <v>0.02713179863505067</v>
+        <v>0.02330657204704962</v>
       </c>
       <c r="Q8">
-        <v>0.1139760772908239</v>
+        <v>0.2606579470598889</v>
       </c>
       <c r="R8">
-        <v>0.1139760772908239</v>
+        <v>2.345921523539</v>
       </c>
       <c r="S8">
-        <v>0.006648457118789594</v>
+        <v>0.003759479882586973</v>
       </c>
       <c r="T8">
-        <v>0.006648457118789594</v>
+        <v>0.003759479882586974</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,61 +962,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.167689479406281</v>
+        <v>0.3005456666666667</v>
       </c>
       <c r="H9">
-        <v>0.167689479406281</v>
+        <v>0.901637</v>
       </c>
       <c r="I9">
-        <v>0.2450429921074481</v>
+        <v>0.1613055697336188</v>
       </c>
       <c r="J9">
-        <v>0.2450429921074481</v>
+        <v>0.1613055697336188</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.18365333282934</v>
+        <v>1.185693666666667</v>
       </c>
       <c r="N9">
-        <v>1.18365333282934</v>
+        <v>3.557081</v>
       </c>
       <c r="O9">
-        <v>0.04724928284572823</v>
+        <v>0.03186327428311169</v>
       </c>
       <c r="P9">
-        <v>0.04724928284572823</v>
+        <v>0.03186327428311169</v>
       </c>
       <c r="Q9">
-        <v>0.1984862111796615</v>
+        <v>0.3563550935107778</v>
       </c>
       <c r="R9">
-        <v>0.1984862111796615</v>
+        <v>3.207195841597</v>
       </c>
       <c r="S9">
-        <v>0.01157810564344837</v>
+        <v>0.005139723611815895</v>
       </c>
       <c r="T9">
-        <v>0.01157810564344837</v>
+        <v>0.005139723611815896</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,61 +1024,61 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.167689479406281</v>
+        <v>0.3005456666666667</v>
       </c>
       <c r="H10">
-        <v>0.167689479406281</v>
+        <v>0.901637</v>
       </c>
       <c r="I10">
-        <v>0.2450429921074481</v>
+        <v>0.1613055697336188</v>
       </c>
       <c r="J10">
-        <v>0.2450429921074481</v>
+        <v>0.1613055697336188</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>6.61944302727373</v>
+        <v>16.21723233333333</v>
       </c>
       <c r="N10">
-        <v>6.61944302727373</v>
+        <v>48.651697</v>
       </c>
       <c r="O10">
-        <v>0.264236096162739</v>
+        <v>0.4358074403843607</v>
       </c>
       <c r="P10">
-        <v>0.264236096162739</v>
+        <v>0.4358074403843607</v>
       </c>
       <c r="Q10">
-        <v>1.110010955203069</v>
+        <v>4.874018903109889</v>
       </c>
       <c r="R10">
-        <v>1.110010955203069</v>
+        <v>43.866170127989</v>
       </c>
       <c r="S10">
-        <v>0.06474920362650896</v>
+        <v>0.07029816746534941</v>
       </c>
       <c r="T10">
-        <v>0.06474920362650896</v>
+        <v>0.07029816746534942</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1086,61 +1086,61 @@
         <v>21</v>
       </c>
       <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
         <v>22</v>
       </c>
-      <c r="C11" t="s">
-        <v>23</v>
-      </c>
-      <c r="D11" t="s">
-        <v>27</v>
-      </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.167689479406281</v>
+        <v>0.3005456666666667</v>
       </c>
       <c r="H11">
-        <v>0.167689479406281</v>
+        <v>0.901637</v>
       </c>
       <c r="I11">
-        <v>0.2450429921074481</v>
+        <v>0.1613055697336188</v>
       </c>
       <c r="J11">
-        <v>0.2450429921074481</v>
+        <v>0.1613055697336188</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>8.99023059359207</v>
+        <v>11.00545633333333</v>
       </c>
       <c r="N11">
-        <v>8.99023059359207</v>
+        <v>33.016369</v>
       </c>
       <c r="O11">
-        <v>0.3588736130616685</v>
+        <v>0.2957508196409995</v>
       </c>
       <c r="P11">
-        <v>0.3588736130616685</v>
+        <v>0.2957508196409995</v>
       </c>
       <c r="Q11">
-        <v>1.507567087981875</v>
+        <v>3.307642210672555</v>
       </c>
       <c r="R11">
-        <v>1.507567087981875</v>
+        <v>29.768779896053</v>
       </c>
       <c r="S11">
-        <v>0.08793946393304183</v>
+        <v>0.04770625446137616</v>
       </c>
       <c r="T11">
-        <v>0.08793946393304183</v>
+        <v>0.04770625446137616</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,61 +1148,61 @@
         <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
         <v>23</v>
       </c>
-      <c r="D12" t="s">
-        <v>20</v>
-      </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.167689479406281</v>
+        <v>0.3005456666666667</v>
       </c>
       <c r="H12">
-        <v>0.167689479406281</v>
+        <v>0.901637</v>
       </c>
       <c r="I12">
-        <v>0.2450429921074481</v>
+        <v>0.1613055697336188</v>
       </c>
       <c r="J12">
-        <v>0.2450429921074481</v>
+        <v>0.1613055697336188</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.09530791525976</v>
+        <v>7.413711999999999</v>
       </c>
       <c r="N12">
-        <v>7.09530791525976</v>
+        <v>22.241136</v>
       </c>
       <c r="O12">
-        <v>0.2832317548283194</v>
+        <v>0.1992294852818897</v>
       </c>
       <c r="P12">
-        <v>0.2832317548283194</v>
+        <v>0.1992294852818897</v>
       </c>
       <c r="Q12">
-        <v>1.189808490537174</v>
+        <v>2.228159015514666</v>
       </c>
       <c r="R12">
-        <v>1.189808490537174</v>
+        <v>20.053431139632</v>
       </c>
       <c r="S12">
-        <v>0.06940395666297454</v>
+        <v>0.03213682563113084</v>
       </c>
       <c r="T12">
-        <v>0.06940395666297454</v>
+        <v>0.03213682563113084</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,61 +1210,1177 @@
         <v>21</v>
       </c>
       <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.3005456666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.901637</v>
+      </c>
+      <c r="I13">
+        <v>0.1613055697336188</v>
+      </c>
+      <c r="J13">
+        <v>0.1613055697336188</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.522545</v>
+      </c>
+      <c r="N13">
+        <v>1.567635</v>
+      </c>
+      <c r="O13">
+        <v>0.01404240836258882</v>
+      </c>
+      <c r="P13">
+        <v>0.01404240836258882</v>
+      </c>
+      <c r="Q13">
+        <v>0.1570486353883333</v>
+      </c>
+      <c r="R13">
+        <v>1.413437718495</v>
+      </c>
+      <c r="S13">
+        <v>0.002265118681359523</v>
+      </c>
+      <c r="T13">
+        <v>0.002265118681359523</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="s">
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.7937293333333333</v>
+      </c>
+      <c r="H14">
+        <v>2.381188</v>
+      </c>
+      <c r="I14">
+        <v>0.4260016913490199</v>
+      </c>
+      <c r="J14">
+        <v>0.4260016913490199</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.8672823333333334</v>
+      </c>
+      <c r="N14">
+        <v>2.601847</v>
+      </c>
+      <c r="O14">
+        <v>0.02330657204704962</v>
+      </c>
+      <c r="P14">
+        <v>0.02330657204704962</v>
+      </c>
+      <c r="Q14">
+        <v>0.6883874282484445</v>
+      </c>
+      <c r="R14">
+        <v>6.195486854236</v>
+      </c>
+      <c r="S14">
+        <v>0.009928639111590929</v>
+      </c>
+      <c r="T14">
+        <v>0.009928639111590929</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.7937293333333333</v>
+      </c>
+      <c r="H15">
+        <v>2.381188</v>
+      </c>
+      <c r="I15">
+        <v>0.4260016913490199</v>
+      </c>
+      <c r="J15">
+        <v>0.4260016913490199</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>1.185693666666667</v>
+      </c>
+      <c r="N15">
+        <v>3.557081</v>
+      </c>
+      <c r="O15">
+        <v>0.03186327428311169</v>
+      </c>
+      <c r="P15">
+        <v>0.03186327428311169</v>
+      </c>
+      <c r="Q15">
+        <v>0.9411198435808888</v>
+      </c>
+      <c r="R15">
+        <v>8.470078592227999</v>
+      </c>
+      <c r="S15">
+        <v>0.01357380873652331</v>
+      </c>
+      <c r="T15">
+        <v>0.01357380873652331</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.7937293333333333</v>
+      </c>
+      <c r="H16">
+        <v>2.381188</v>
+      </c>
+      <c r="I16">
+        <v>0.4260016913490199</v>
+      </c>
+      <c r="J16">
+        <v>0.4260016913490199</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>16.21723233333333</v>
+      </c>
+      <c r="N16">
+        <v>48.651697</v>
+      </c>
+      <c r="O16">
+        <v>0.4358074403843607</v>
+      </c>
+      <c r="P16">
+        <v>0.4358074403843607</v>
+      </c>
+      <c r="Q16">
+        <v>12.87209300844844</v>
+      </c>
+      <c r="R16">
+        <v>115.848837076036</v>
+      </c>
+      <c r="S16">
+        <v>0.1856547067062248</v>
+      </c>
+      <c r="T16">
+        <v>0.1856547067062248</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" t="s">
+        <v>22</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.7937293333333333</v>
+      </c>
+      <c r="H17">
+        <v>2.381188</v>
+      </c>
+      <c r="I17">
+        <v>0.4260016913490199</v>
+      </c>
+      <c r="J17">
+        <v>0.4260016913490199</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>11.00545633333333</v>
+      </c>
+      <c r="N17">
+        <v>33.016369</v>
+      </c>
+      <c r="O17">
+        <v>0.2957508196409995</v>
+      </c>
+      <c r="P17">
+        <v>0.2957508196409995</v>
+      </c>
+      <c r="Q17">
+        <v>8.735353518485777</v>
+      </c>
+      <c r="R17">
+        <v>78.618181666372</v>
+      </c>
+      <c r="S17">
+        <v>0.1259903493849247</v>
+      </c>
+      <c r="T17">
+        <v>0.1259903493849247</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" t="s">
         <v>23</v>
       </c>
-      <c r="D13" t="s">
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G18">
+        <v>0.7937293333333333</v>
+      </c>
+      <c r="H18">
+        <v>2.381188</v>
+      </c>
+      <c r="I18">
+        <v>0.4260016913490199</v>
+      </c>
+      <c r="J18">
+        <v>0.4260016913490199</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>7.413711999999999</v>
+      </c>
+      <c r="N18">
+        <v>22.241136</v>
+      </c>
+      <c r="O18">
+        <v>0.1992294852818897</v>
+      </c>
+      <c r="P18">
+        <v>0.1992294852818897</v>
+      </c>
+      <c r="Q18">
+        <v>5.884480683285332</v>
+      </c>
+      <c r="R18">
+        <v>52.96032614956799</v>
+      </c>
+      <c r="S18">
+        <v>0.08487209769667971</v>
+      </c>
+      <c r="T18">
+        <v>0.08487209769667969</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
+      </c>
+      <c r="C19" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G19">
+        <v>0.7937293333333333</v>
+      </c>
+      <c r="H19">
+        <v>2.381188</v>
+      </c>
+      <c r="I19">
+        <v>0.4260016913490199</v>
+      </c>
+      <c r="J19">
+        <v>0.4260016913490199</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>0.522545</v>
+      </c>
+      <c r="N19">
+        <v>1.567635</v>
+      </c>
+      <c r="O19">
+        <v>0.01404240836258882</v>
+      </c>
+      <c r="P19">
+        <v>0.01404240836258882</v>
+      </c>
+      <c r="Q19">
+        <v>0.4147592944866667</v>
+      </c>
+      <c r="R19">
+        <v>3.73283365038</v>
+      </c>
+      <c r="S19">
+        <v>0.005982089713076458</v>
+      </c>
+      <c r="T19">
+        <v>0.005982089713076458</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" t="s">
+        <v>26</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>0.5721599999999999</v>
+      </c>
+      <c r="H20">
+        <v>1.71648</v>
+      </c>
+      <c r="I20">
+        <v>0.3070834319536154</v>
+      </c>
+      <c r="J20">
+        <v>0.3070834319536155</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>0.8672823333333334</v>
+      </c>
+      <c r="N20">
+        <v>2.601847</v>
+      </c>
+      <c r="O20">
+        <v>0.02330657204704962</v>
+      </c>
+      <c r="P20">
+        <v>0.02330657204704962</v>
+      </c>
+      <c r="Q20">
+        <v>0.4962242598399999</v>
+      </c>
+      <c r="R20">
+        <v>4.46601833856</v>
+      </c>
+      <c r="S20">
+        <v>0.007157062131282198</v>
+      </c>
+      <c r="T20">
+        <v>0.007157062131282199</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>25</v>
+      </c>
+      <c r="C21" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.5721599999999999</v>
+      </c>
+      <c r="H21">
+        <v>1.71648</v>
+      </c>
+      <c r="I21">
+        <v>0.3070834319536154</v>
+      </c>
+      <c r="J21">
+        <v>0.3070834319536155</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>1.185693666666667</v>
+      </c>
+      <c r="N21">
+        <v>3.557081</v>
+      </c>
+      <c r="O21">
+        <v>0.03186327428311169</v>
+      </c>
+      <c r="P21">
+        <v>0.03186327428311169</v>
+      </c>
+      <c r="Q21">
+        <v>0.6784064883199998</v>
+      </c>
+      <c r="R21">
+        <v>6.105658394879999</v>
+      </c>
+      <c r="S21">
+        <v>0.009784683620137314</v>
+      </c>
+      <c r="T21">
+        <v>0.009784683620137315</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22" t="s">
+        <v>26</v>
+      </c>
+      <c r="D22" t="s">
         <v>21</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>0.167689479406281</v>
-      </c>
-      <c r="H13">
-        <v>0.167689479406281</v>
-      </c>
-      <c r="I13">
-        <v>0.2450429921074481</v>
-      </c>
-      <c r="J13">
-        <v>0.2450429921074481</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.482924223468814</v>
-      </c>
-      <c r="N13">
-        <v>0.482924223468814</v>
-      </c>
-      <c r="O13">
-        <v>0.01927745446649416</v>
-      </c>
-      <c r="P13">
-        <v>0.01927745446649416</v>
-      </c>
-      <c r="Q13">
-        <v>0.08098131162616792</v>
-      </c>
-      <c r="R13">
-        <v>0.08098131162616792</v>
-      </c>
-      <c r="S13">
-        <v>0.004723805122684818</v>
-      </c>
-      <c r="T13">
-        <v>0.004723805122684818</v>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>0.5721599999999999</v>
+      </c>
+      <c r="H22">
+        <v>1.71648</v>
+      </c>
+      <c r="I22">
+        <v>0.3070834319536154</v>
+      </c>
+      <c r="J22">
+        <v>0.3070834319536155</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>1</v>
+      </c>
+      <c r="M22">
+        <v>16.21723233333333</v>
+      </c>
+      <c r="N22">
+        <v>48.651697</v>
+      </c>
+      <c r="O22">
+        <v>0.4358074403843607</v>
+      </c>
+      <c r="P22">
+        <v>0.4358074403843607</v>
+      </c>
+      <c r="Q22">
+        <v>9.278851651839997</v>
+      </c>
+      <c r="R22">
+        <v>83.50966486655999</v>
+      </c>
+      <c r="S22">
+        <v>0.1338292444641501</v>
+      </c>
+      <c r="T22">
+        <v>0.1338292444641502</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>25</v>
+      </c>
+      <c r="C23" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>0.5721599999999999</v>
+      </c>
+      <c r="H23">
+        <v>1.71648</v>
+      </c>
+      <c r="I23">
+        <v>0.3070834319536154</v>
+      </c>
+      <c r="J23">
+        <v>0.3070834319536155</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>11.00545633333333</v>
+      </c>
+      <c r="N23">
+        <v>33.016369</v>
+      </c>
+      <c r="O23">
+        <v>0.2957508196409995</v>
+      </c>
+      <c r="P23">
+        <v>0.2957508196409995</v>
+      </c>
+      <c r="Q23">
+        <v>6.296881895679999</v>
+      </c>
+      <c r="R23">
+        <v>56.67193706111999</v>
+      </c>
+      <c r="S23">
+        <v>0.09082017669845285</v>
+      </c>
+      <c r="T23">
+        <v>0.09082017669845287</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" t="s">
+        <v>23</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>0.5721599999999999</v>
+      </c>
+      <c r="H24">
+        <v>1.71648</v>
+      </c>
+      <c r="I24">
+        <v>0.3070834319536154</v>
+      </c>
+      <c r="J24">
+        <v>0.3070834319536155</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>7.413711999999999</v>
+      </c>
+      <c r="N24">
+        <v>22.241136</v>
+      </c>
+      <c r="O24">
+        <v>0.1992294852818897</v>
+      </c>
+      <c r="P24">
+        <v>0.1992294852818897</v>
+      </c>
+      <c r="Q24">
+        <v>4.241829457919999</v>
+      </c>
+      <c r="R24">
+        <v>38.17646512127999</v>
+      </c>
+      <c r="S24">
+        <v>0.06118007408671502</v>
+      </c>
+      <c r="T24">
+        <v>0.06118007408671502</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+      <c r="C25" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" t="s">
+        <v>24</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>0.5721599999999999</v>
+      </c>
+      <c r="H25">
+        <v>1.71648</v>
+      </c>
+      <c r="I25">
+        <v>0.3070834319536154</v>
+      </c>
+      <c r="J25">
+        <v>0.3070834319536155</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>0.522545</v>
+      </c>
+      <c r="N25">
+        <v>1.567635</v>
+      </c>
+      <c r="O25">
+        <v>0.01404240836258882</v>
+      </c>
+      <c r="P25">
+        <v>0.01404240836258882</v>
+      </c>
+      <c r="Q25">
+        <v>0.2989793472</v>
+      </c>
+      <c r="R25">
+        <v>2.6908141248</v>
+      </c>
+      <c r="S25">
+        <v>0.004312190952877924</v>
+      </c>
+      <c r="T25">
+        <v>0.004312190952877925</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" t="s">
+        <v>26</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.1946053333333333</v>
+      </c>
+      <c r="H26">
+        <v>0.5838159999999999</v>
+      </c>
+      <c r="I26">
+        <v>0.1044464374239327</v>
+      </c>
+      <c r="J26">
+        <v>0.1044464374239327</v>
+      </c>
+      <c r="K26">
+        <v>3</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0.8672823333333334</v>
+      </c>
+      <c r="N26">
+        <v>2.601847</v>
+      </c>
+      <c r="O26">
+        <v>0.02330657204704962</v>
+      </c>
+      <c r="P26">
+        <v>0.02330657204704962</v>
+      </c>
+      <c r="Q26">
+        <v>0.1687777675724444</v>
+      </c>
+      <c r="R26">
+        <v>1.518999908152</v>
+      </c>
+      <c r="S26">
+        <v>0.002434288418878547</v>
+      </c>
+      <c r="T26">
+        <v>0.002434288418878547</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" t="s">
+        <v>26</v>
+      </c>
+      <c r="D27" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0.1946053333333333</v>
+      </c>
+      <c r="H27">
+        <v>0.5838159999999999</v>
+      </c>
+      <c r="I27">
+        <v>0.1044464374239327</v>
+      </c>
+      <c r="J27">
+        <v>0.1044464374239327</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>1.185693666666667</v>
+      </c>
+      <c r="N27">
+        <v>3.557081</v>
+      </c>
+      <c r="O27">
+        <v>0.03186327428311169</v>
+      </c>
+      <c r="P27">
+        <v>0.03186327428311169</v>
+      </c>
+      <c r="Q27">
+        <v>0.2307423112328889</v>
+      </c>
+      <c r="R27">
+        <v>2.076680801095999</v>
+      </c>
+      <c r="S27">
+        <v>0.003328005483532628</v>
+      </c>
+      <c r="T27">
+        <v>0.003328005483532628</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" t="s">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0.1946053333333333</v>
+      </c>
+      <c r="H28">
+        <v>0.5838159999999999</v>
+      </c>
+      <c r="I28">
+        <v>0.1044464374239327</v>
+      </c>
+      <c r="J28">
+        <v>0.1044464374239327</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>1</v>
+      </c>
+      <c r="M28">
+        <v>16.21723233333333</v>
+      </c>
+      <c r="N28">
+        <v>48.651697</v>
+      </c>
+      <c r="O28">
+        <v>0.4358074403843607</v>
+      </c>
+      <c r="P28">
+        <v>0.4358074403843607</v>
+      </c>
+      <c r="Q28">
+        <v>3.155959903972444</v>
+      </c>
+      <c r="R28">
+        <v>28.40363913575199</v>
+      </c>
+      <c r="S28">
+        <v>0.0455185345509894</v>
+      </c>
+      <c r="T28">
+        <v>0.0455185345509894</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C29" t="s">
+        <v>26</v>
+      </c>
+      <c r="D29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0.1946053333333333</v>
+      </c>
+      <c r="H29">
+        <v>0.5838159999999999</v>
+      </c>
+      <c r="I29">
+        <v>0.1044464374239327</v>
+      </c>
+      <c r="J29">
+        <v>0.1044464374239327</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>1</v>
+      </c>
+      <c r="M29">
+        <v>11.00545633333333</v>
+      </c>
+      <c r="N29">
+        <v>33.016369</v>
+      </c>
+      <c r="O29">
+        <v>0.2957508196409995</v>
+      </c>
+      <c r="P29">
+        <v>0.2957508196409995</v>
+      </c>
+      <c r="Q29">
+        <v>2.141720498233777</v>
+      </c>
+      <c r="R29">
+        <v>19.27548448410399</v>
+      </c>
+      <c r="S29">
+        <v>0.03089011947671045</v>
+      </c>
+      <c r="T29">
+        <v>0.03089011947671045</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30" t="s">
+        <v>26</v>
+      </c>
+      <c r="D30" t="s">
+        <v>23</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.1946053333333333</v>
+      </c>
+      <c r="H30">
+        <v>0.5838159999999999</v>
+      </c>
+      <c r="I30">
+        <v>0.1044464374239327</v>
+      </c>
+      <c r="J30">
+        <v>0.1044464374239327</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>7.413711999999999</v>
+      </c>
+      <c r="N30">
+        <v>22.241136</v>
+      </c>
+      <c r="O30">
+        <v>0.1992294852818897</v>
+      </c>
+      <c r="P30">
+        <v>0.1992294852818897</v>
+      </c>
+      <c r="Q30">
+        <v>1.442747894997333</v>
+      </c>
+      <c r="R30">
+        <v>12.984731054976</v>
+      </c>
+      <c r="S30">
+        <v>0.02080880996749721</v>
+      </c>
+      <c r="T30">
+        <v>0.02080880996749721</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31" t="s">
+        <v>26</v>
+      </c>
+      <c r="D31" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.1946053333333333</v>
+      </c>
+      <c r="H31">
+        <v>0.5838159999999999</v>
+      </c>
+      <c r="I31">
+        <v>0.1044464374239327</v>
+      </c>
+      <c r="J31">
+        <v>0.1044464374239327</v>
+      </c>
+      <c r="K31">
+        <v>3</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>0.522545</v>
+      </c>
+      <c r="N31">
+        <v>1.567635</v>
+      </c>
+      <c r="O31">
+        <v>0.01404240836258882</v>
+      </c>
+      <c r="P31">
+        <v>0.01404240836258882</v>
+      </c>
+      <c r="Q31">
+        <v>0.1016900439066667</v>
+      </c>
+      <c r="R31">
+        <v>0.9152103951599999</v>
+      </c>
+      <c r="S31">
+        <v>0.001466679526324442</v>
+      </c>
+      <c r="T31">
+        <v>0.001466679526324442</v>
       </c>
     </row>
   </sheetData>
